--- a/web/WEB-INF/template/Monthly_performance_report.xlsx
+++ b/web/WEB-INF/template/Monthly_performance_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="23910" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="月绩效报表" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
-  <si>
-    <t>报表C:月绩效报表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>报表C:月绩效报表 (预算数额属于人工输入，报表不自动生成该数据）</t>
   </si>
   <si>
     <t>${report.year}年${report.month}月（当前月）</t>
@@ -35,9 +35,6 @@
     <t>订单总数</t>
   </si>
   <si>
-    <t>${report.orderTotal}</t>
-  </si>
-  <si>
     <t>${report.realOrderTotal}</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>活动总数</t>
   </si>
   <si>
-    <t>${report.caseTotal}</t>
-  </si>
-  <si>
     <t>${report.realCaseTotal}</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>售票总数</t>
   </si>
   <si>
-    <t>${report.ticketTotal}</t>
-  </si>
-  <si>
     <t>${report.realTicketTotal}</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>折扣后总收入</t>
   </si>
   <si>
-    <t>${report.priceTotal-report.couponTotal}</t>
-  </si>
-  <si>
     <t>${report.realPriceTotal-report.realCouponTotal}</t>
   </si>
   <si>
@@ -81,9 +69,6 @@
   </si>
   <si>
     <t>折扣总金额</t>
-  </si>
-  <si>
-    <t>${0-report.couponTotal}</t>
   </si>
   <si>
     <t>${0-report.realCouponTotal}</t>
@@ -97,12 +82,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_([$¥-804]* #,##0.00_);_([$¥-804]* \(#,##0.00\);_([$¥-804]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_([$¥-804]* #,##0.00_);_([$¥-804]* \(#,##0.00\);_([$¥-804]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -123,7 +108,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,27 +141,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -188,10 +179,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +541,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="3" width="13.75"/>
-    <col min="4" max="4" width="12.625"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -580,70 +578,70 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1">
